--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OS\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OS\Downloads\tuthien\tuthien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618670B5-5CD5-43B2-AF07-4C1540B440AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8077FFA9-208A-40D3-9BB2-AA3F35B5C7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="6675" windowWidth="11910" windowHeight="8895" xr2:uid="{E0F64FE8-9362-4893-9421-DEB481AE8182}"/>
+    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{E0F64FE8-9362-4893-9421-DEB481AE8182}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,14 +187,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD162EF1-7290-4FC1-867D-826244DFDD8B}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,34 +526,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="3"/>
       <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="2"/>
       <c r="H2" t="s">
         <v>24</v>
       </c>
@@ -562,16 +562,16 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="3"/>
       <c r="H3" t="s">
         <v>28</v>
       </c>
@@ -580,16 +580,16 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="3" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="4"/>
       <c r="H4" t="s">
         <v>20</v>
       </c>
@@ -598,16 +598,16 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="3"/>
       <c r="H5" t="s">
         <v>16</v>
       </c>
@@ -616,40 +616,40 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="H6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
       <c r="H7" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="H8" t="s">
         <v>18</v>
       </c>
@@ -658,18 +658,18 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="3"/>
       <c r="H9" t="s">
         <v>22</v>
       </c>
@@ -678,334 +678,245 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="E38:F38"/>
@@ -1029,6 +940,95 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OS\Downloads\tuthien\tuthien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OS\Desktop\tuthien\tuthien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8077FFA9-208A-40D3-9BB2-AA3F35B5C7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ABEC1B-C533-4C0F-95D3-1D6295EBF3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{E0F64FE8-9362-4893-9421-DEB481AE8182}"/>
+    <workbookView xWindow="45210" yWindow="6765" windowWidth="12405" windowHeight="8880" xr2:uid="{E0F64FE8-9362-4893-9421-DEB481AE8182}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -188,13 +188,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD162EF1-7290-4FC1-867D-826244DFDD8B}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,18 +526,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="2"/>
       <c r="H1" t="s">
         <v>12</v>
       </c>
@@ -546,14 +546,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="4"/>
       <c r="H2" t="s">
         <v>24</v>
       </c>
@@ -562,16 +562,16 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="2"/>
       <c r="H3" t="s">
         <v>28</v>
       </c>
@@ -580,16 +580,16 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="3"/>
       <c r="H4" t="s">
         <v>20</v>
       </c>
@@ -598,16 +598,16 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="2"/>
       <c r="H5" t="s">
         <v>16</v>
       </c>
@@ -616,12 +616,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="H6" t="s">
         <v>14</v>
       </c>
@@ -630,12 +630,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="H7" t="s">
         <v>26</v>
       </c>
@@ -644,12 +644,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="H8" t="s">
         <v>18</v>
       </c>
@@ -658,18 +658,18 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="2"/>
       <c r="H9" t="s">
         <v>22</v>
       </c>
@@ -678,245 +678,331 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="A17" s="2">
+        <v>-750</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2">
+        <v>2650</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="110">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="E38:F38"/>
@@ -941,94 +1027,6 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OS\Desktop\tuthien\tuthien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ABEC1B-C533-4C0F-95D3-1D6295EBF3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AAAFDB-2E54-4F63-87F5-F6951C7E8EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45210" yWindow="6765" windowWidth="12405" windowHeight="8880" xr2:uid="{E0F64FE8-9362-4893-9421-DEB481AE8182}"/>
+    <workbookView xWindow="47430" yWindow="6765" windowWidth="10170" windowHeight="8880" xr2:uid="{E0F64FE8-9362-4893-9421-DEB481AE8182}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -165,12 +165,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -185,10 +191,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -511,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD162EF1-7290-4FC1-867D-826244DFDD8B}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,10 +559,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="5"/>
       <c r="H2" t="s">
         <v>24</v>
       </c>
@@ -562,10 +571,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
@@ -586,10 +595,10 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="4"/>
       <c r="H4" t="s">
         <v>20</v>
       </c>
@@ -598,10 +607,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
@@ -616,10 +625,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="H6" t="s">
@@ -756,9 +765,13 @@
       <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2">
+        <v>1920</v>
+      </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2">
+        <v>1080</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -798,49 +811,93 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2">
+        <v>384</v>
+      </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2">
+        <v>360</v>
+      </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2">
+        <f>$C$24*A25-($C$24/2)</f>
+        <v>192</v>
+      </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2">
+        <f>$E$24*A25-($E$24/2)</f>
+        <v>180</v>
+      </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2">
+        <v>2</v>
+      </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2">
+        <f t="shared" ref="C26:C29" si="0">$C$24*A26-($C$24/2)</f>
+        <v>576</v>
+      </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2">
+        <f t="shared" ref="E26:E29" si="1">$E$24*A26-($E$24/2)</f>
+        <v>540</v>
+      </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2">
+        <v>3</v>
+      </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2">
+        <f>$E$24*A27-($E$24/2)</f>
+        <v>900</v>
+      </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2">
+        <v>4</v>
+      </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>1344</v>
+      </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2">
+        <f t="shared" si="1"/>
+        <v>1260</v>
+      </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="A29" s="2">
+        <v>5</v>
+      </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>1728</v>
+      </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2">
+        <f t="shared" si="1"/>
+        <v>1620</v>
+      </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -854,7 +911,9 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2">
+        <v>192</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -862,7 +921,9 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2">
+        <v>576</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -870,7 +931,9 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2">
+        <v>960</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -878,7 +941,9 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2">
+        <v>1344</v>
+      </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -886,7 +951,9 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2">
+        <v>1728</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -915,8 +982,48 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2">
+        <v>540</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2">
+        <v>960</v>
+      </c>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2">
+        <f>C39/2</f>
+        <v>270</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2">
+        <f>E39/2</f>
+        <v>480</v>
+      </c>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2">
+        <f>C40+C39</f>
+        <v>810</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2">
+        <f>E40+E39</f>
+        <v>1440</v>
+      </c>
+      <c r="F41" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="110">
+  <mergeCells count="119">
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
@@ -1027,6 +1134,15 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OS\Desktop\tuthien\tuthien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AAAFDB-2E54-4F63-87F5-F6951C7E8EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3697017A-CFF8-403E-8A1F-1EA47FBD852B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47430" yWindow="6765" windowWidth="10170" windowHeight="8880" xr2:uid="{E0F64FE8-9362-4893-9421-DEB481AE8182}"/>
+    <workbookView xWindow="46680" yWindow="6765" windowWidth="10920" windowHeight="8880" xr2:uid="{E0F64FE8-9362-4893-9421-DEB481AE8182}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,6 +194,9 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -201,9 +204,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -522,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD162EF1-7290-4FC1-867D-826244DFDD8B}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40:D40"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,18 +535,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="3"/>
       <c r="H1" t="s">
         <v>12</v>
       </c>
@@ -555,14 +555,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="2"/>
       <c r="H2" t="s">
         <v>24</v>
       </c>
@@ -571,16 +571,16 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="4"/>
       <c r="H3" t="s">
         <v>28</v>
       </c>
@@ -589,16 +589,16 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="5"/>
       <c r="H4" t="s">
         <v>20</v>
       </c>
@@ -607,16 +607,16 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="5"/>
       <c r="H5" t="s">
         <v>16</v>
       </c>
@@ -625,12 +625,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="H6" t="s">
         <v>14</v>
       </c>
@@ -639,12 +639,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
       <c r="H7" t="s">
         <v>26</v>
       </c>
@@ -653,12 +653,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="H8" t="s">
         <v>18</v>
       </c>
@@ -667,18 +667,18 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="3"/>
       <c r="H9" t="s">
         <v>22</v>
       </c>
@@ -687,429 +687,352 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>-750</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3">
         <v>2650</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>1920</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3">
         <v>1080</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3">
         <v>384</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
         <v>360</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>1</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3">
         <f>$C$24*A25-($C$24/2)</f>
         <v>192</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
         <f>$E$24*A25-($E$24/2)</f>
         <v>180</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>2</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3">
         <f t="shared" ref="C26:C29" si="0">$C$24*A26-($C$24/2)</f>
         <v>576</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
         <f t="shared" ref="E26:E29" si="1">$E$24*A26-($E$24/2)</f>
         <v>540</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>3</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3">
         <f t="shared" si="0"/>
         <v>960</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
         <f>$E$24*A27-($E$24/2)</f>
         <v>900</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>4</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3">
         <f t="shared" si="0"/>
         <v>1344</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3">
         <f t="shared" si="1"/>
         <v>1260</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>5</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3">
         <f t="shared" si="0"/>
         <v>1728</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
         <f t="shared" si="1"/>
         <v>1620</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3">
         <v>192</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3">
         <v>576</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3">
         <v>960</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3">
         <v>1344</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3">
         <v>1728</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3">
         <v>540</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2">
+      <c r="D39" s="3"/>
+      <c r="E39" s="3">
         <v>960</v>
       </c>
-      <c r="F39" s="2"/>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3">
         <f>C39/2</f>
         <v>270</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3">
         <f>E39/2</f>
         <v>480</v>
       </c>
-      <c r="F40" s="2"/>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3">
         <f>C40+C39</f>
         <v>810</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2">
+      <c r="D41" s="3"/>
+      <c r="E41" s="3">
         <f>E40+E39</f>
         <v>1440</v>
       </c>
-      <c r="F41" s="2"/>
+      <c r="F41" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="E38:F38"/>
@@ -1134,15 +1057,92 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OS\Desktop\tuthien\tuthien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3697017A-CFF8-403E-8A1F-1EA47FBD852B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A893EC63-26A2-419C-86D5-F2E07E56B061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46680" yWindow="6765" windowWidth="10920" windowHeight="8880" xr2:uid="{E0F64FE8-9362-4893-9421-DEB481AE8182}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Cuối</t>
   </si>
@@ -137,13 +137,40 @@
   </si>
   <si>
     <t>Video day xe, lam viec nhoc</t>
+  </si>
+  <si>
+    <t>CT _Cùng em tới trường - Tiếp bước yêu thương_ tại Nóc Ông Bình, Trà Dơn - 17-18-08-2024</t>
+  </si>
+  <si>
+    <t>CT _Đông Yêu Thương_ - Nóc Ông Thương, Trà Leng, Nam Trà My - 19-20-10-2024</t>
+  </si>
+  <si>
+    <t>CT _Trà Tập - Xuân Yêu Thương_ - Măng Ổi, Trà Tập, Nam Trà My - 09-10-03-2024</t>
+  </si>
+  <si>
+    <t>Nóc Răng Dí, Trà Tập, Nam Trà My - 13-14-04-2024</t>
+  </si>
+  <si>
+    <t>zzz_CT _Bữa trưa yêu thương_ 25-08-2024</t>
+  </si>
+  <si>
+    <t>zzz_CT _Nồi Cháo Yêu Thương_ - Bệnh Viện Ung Bướu Đà Nẵng - 21-01-2024</t>
+  </si>
+  <si>
+    <t>zzz_CT _Trung thu yêu thương_ - TT Bảo trợ trẻ em đường phố Đà Nẵng - 17-09-2024</t>
+  </si>
+  <si>
+    <t>CT _Ngày Tết cho em_ - Nóc Ông Ngọc, Trà Dơn - 01-2-6-2024</t>
+  </si>
+  <si>
+    <t>CT _Trà Leng - Áo ấm yêu thương_ - Nóc Ông Lục, Trà Leng - 21,22-12-2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,12 +181,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -191,12 +212,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -520,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD162EF1-7290-4FC1-867D-826244DFDD8B}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,19 +552,19 @@
     <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="2"/>
       <c r="H1" t="s">
         <v>12</v>
       </c>
@@ -554,15 +572,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="4"/>
       <c r="H2" t="s">
         <v>24</v>
       </c>
@@ -570,17 +588,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="3"/>
       <c r="H3" t="s">
         <v>28</v>
       </c>
@@ -588,17 +606,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="4"/>
       <c r="H4" t="s">
         <v>20</v>
       </c>
@@ -606,17 +624,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="4"/>
       <c r="H5" t="s">
         <v>16</v>
       </c>
@@ -624,13 +642,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="H6" t="s">
         <v>14</v>
       </c>
@@ -638,13 +656,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="H7" t="s">
         <v>26</v>
       </c>
@@ -652,13 +670,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="H8" t="s">
         <v>18</v>
       </c>
@@ -666,19 +684,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="4"/>
       <c r="H9" t="s">
         <v>22</v>
       </c>
@@ -686,353 +704,467 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>-750</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2">
         <v>2650</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>1920</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2">
         <v>1080</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2">
         <v>384</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3">
-        <v>360</v>
-      </c>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>1</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2">
         <f>$C$24*A25-($C$24/2)</f>
         <v>192</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3">
-        <f>$E$24*A25-($E$24/2)</f>
-        <v>180</v>
-      </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>2</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2">
         <f t="shared" ref="C26:C29" si="0">$C$24*A26-($C$24/2)</f>
         <v>576</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3">
-        <f t="shared" ref="E26:E29" si="1">$E$24*A26-($E$24/2)</f>
-        <v>540</v>
-      </c>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>3</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>960</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3">
-        <f>$E$24*A27-($E$24/2)</f>
-        <v>900</v>
-      </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>4</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>1344</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3">
-        <f t="shared" si="1"/>
-        <v>1260</v>
-      </c>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>5</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2">
         <f t="shared" si="0"/>
         <v>1728</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3">
-        <f t="shared" si="1"/>
-        <v>1620</v>
-      </c>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2">
         <v>192</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3">
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2">
         <v>576</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2">
         <v>960</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2">
         <v>1344</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2">
         <v>1728</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2">
         <v>540</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2">
         <v>960</v>
       </c>
-      <c r="F39" s="3"/>
+      <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2">
         <f>C39/2</f>
         <v>270</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2">
         <f>E39/2</f>
         <v>480</v>
       </c>
-      <c r="F40" s="3"/>
+      <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2">
         <f>C40+C39</f>
         <v>810</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2">
         <f>E40+E39</f>
         <v>1440</v>
       </c>
-      <c r="F41" s="3"/>
+      <c r="F41" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="119">
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
+  <mergeCells count="113">
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E24:J24"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="E38:F38"/>
@@ -1057,92 +1189,15 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OS\Desktop\tuthien\tuthien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A893EC63-26A2-419C-86D5-F2E07E56B061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2DB404-6A2D-46E6-AC02-1158CA0867C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46680" yWindow="6765" windowWidth="10920" windowHeight="8880" xr2:uid="{E0F64FE8-9362-4893-9421-DEB481AE8182}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -218,10 +218,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD162EF1-7290-4FC1-867D-826244DFDD8B}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:J13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,10 +577,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="3"/>
       <c r="H2" t="s">
         <v>24</v>
       </c>
@@ -589,16 +589,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="4"/>
       <c r="H3" t="s">
         <v>28</v>
       </c>
@@ -607,16 +607,16 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="3"/>
       <c r="H4" t="s">
         <v>20</v>
       </c>
@@ -625,16 +625,16 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="3"/>
       <c r="H5" t="s">
         <v>16</v>
       </c>
@@ -643,10 +643,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="H6" t="s">
@@ -685,18 +685,18 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="3"/>
       <c r="H9" t="s">
         <v>22</v>
       </c>
@@ -900,7 +900,7 @@
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2">
-        <v>384</v>
+        <v>608</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -916,8 +916,8 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2">
-        <f>$C$24*A25-($C$24/2)</f>
-        <v>192</v>
+        <f>$C$24*A25</f>
+        <v>608</v>
       </c>
       <c r="D25" s="2"/>
     </row>
@@ -927,8 +927,8 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2">
-        <f t="shared" ref="C26:C29" si="0">$C$24*A26-($C$24/2)</f>
-        <v>576</v>
+        <f t="shared" ref="C26:C29" si="0">$C$24*A26</f>
+        <v>1216</v>
       </c>
       <c r="D26" s="2"/>
     </row>
@@ -938,8 +938,8 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2">
-        <f t="shared" si="0"/>
-        <v>960</v>
+        <f>$C$24*A27</f>
+        <v>1824</v>
       </c>
       <c r="D27" s="2"/>
     </row>
@@ -950,7 +950,7 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2">
         <f t="shared" si="0"/>
-        <v>1344</v>
+        <v>2432</v>
       </c>
       <c r="D28" s="2"/>
     </row>
@@ -961,49 +961,66 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2">
         <f t="shared" si="0"/>
-        <v>1728</v>
+        <v>3040</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
+      <c r="A30" s="2">
+        <v>6</v>
+      </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2">
+        <f t="shared" ref="C30:C31" si="1">$C$24*A30</f>
+        <v>3648</v>
+      </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+      <c r="A31" s="2">
+        <v>7</v>
+      </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2">
-        <v>192</v>
+        <f t="shared" si="1"/>
+        <v>4256</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="A32" s="2">
+        <v>8</v>
+      </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2">
-        <v>576</v>
+        <f t="shared" ref="C32:C34" si="2">$C$24*A32</f>
+        <v>4864</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
+      <c r="A33" s="2">
+        <v>9</v>
+      </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2">
-        <v>960</v>
+        <f t="shared" si="2"/>
+        <v>5472</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
+      <c r="A34" s="2">
+        <v>10</v>
+      </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2">
-        <v>1344</v>
+        <f t="shared" si="2"/>
+        <v>6080</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1012,9 +1029,7 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="2">
-        <v>1728</v>
-      </c>
+      <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1085,85 +1100,15 @@
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
     <mergeCell ref="E24:J24"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
@@ -1188,16 +1133,86 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
